--- a/biology/Botanique/Pengerpuisto/Pengerpuisto.xlsx
+++ b/biology/Botanique/Pengerpuisto/Pengerpuisto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc en terrasse (en finnois : Pengerpuisto), est parc du quartier de Kallio à Helsinki en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc en terrasse (en finnois : Pengerpuisto), est parc du quartier de Kallio à Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc, d'environ 1,3 hectare, est construit au centre de la section Torkkelinmäki.
 Le parc est délimité à l'ouest par des immeubles résidentiels des années 1920 bâtis sur Torkelinkatu et à l'est par la haute rangée d'immeubles résidentiels sur Pengerkatu.
@@ -546,7 +560,9 @@
           <t>Végétation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale espèce d'arbre de Pengerpuisto est le frêne commun.
 L'érable plane, l'orme de montagne, l'érable de Tartarie et l'épine-vinette poussent aussi dans le parc.
